--- a/screenshots/sample-invoice.xlsx
+++ b/screenshots/sample-invoice.xlsx
@@ -634,7 +634,7 @@
       </c>
       <c r="F16" s="5" t="inlineStr">
         <is>
-          <t>PO-20250608-0003</t>
+          <t>PO-20250608-0052</t>
         </is>
       </c>
     </row>
